--- a/biology/Botanique/Presse-purée/Presse-purée.xlsx
+++ b/biology/Botanique/Presse-purée/Presse-purée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Presse-pur%C3%A9e</t>
+          <t>Presse-purée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un presse-purée, ou presse légume est un ustensile de cuisine, constitué d'un manche et d'une grille ou d'un embout en zigzag et destiné à écraser des légumes, en particulier les pommes de terre, pour en faire de la purée plus ou moins épaisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Presse-pur%C3%A9e</t>
+          <t>Presse-purée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier presse-purée mécanique à manivelle ou Passe-vite a été inventé et breveté par Victor Simon en Belgique en 1928[1] ; quatre ans plus tard, en 1932, Jean Mantelet dépose en France un brevet pour un presse-purée à manivelle appelé « moulinette presse-légumes »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier presse-purée mécanique à manivelle ou Passe-vite a été inventé et breveté par Victor Simon en Belgique en 1928 ; quatre ans plus tard, en 1932, Jean Mantelet dépose en France un brevet pour un presse-purée à manivelle appelé « moulinette presse-légumes ».
 	Différents types de presse-purée
 			Presse-purée à cylindre vertical, 1869
 			Ancien presse-purée à grille.
